--- a/data_sources/amil_mensalidade_bronze.xlsx
+++ b/data_sources/amil_mensalidade_bronze.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DomRock\FATEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatec\Documents\6BD\Projeto\data_sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{444A94BD-0F98-47C5-BC73-18EC2B475470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B30BE0-057D-4C20-8798-7704939A35B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84ECF3B0-89F8-475F-8C20-9C7899622017}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{84ECF3B0-89F8-475F-8C20-9C7899622017}"/>
   </bookViews>
   <sheets>
     <sheet name="affix_amil_mensalidade_bronze" sheetId="2" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">affix_amil_mensalidade_bronze!$A$1:$L$137</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">affix_amil_mensalidade_bronze!$A$1:$L$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +28,8 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="330">
   <si>
     <t>_id</t>
   </si>
@@ -1151,8 +1151,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55FB5C27-3D37-496E-A20C-021080F6224A}" name="affix_amil_mensalidade_bronze" displayName="affix_amil_mensalidade_bronze" ref="A1:L137" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L137" xr:uid="{55FB5C27-3D37-496E-A20C-021080F6224A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55FB5C27-3D37-496E-A20C-021080F6224A}" name="affix_amil_mensalidade_bronze" displayName="affix_amil_mensalidade_bronze" ref="A1:L142" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L142" xr:uid="{55FB5C27-3D37-496E-A20C-021080F6224A}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7F0ED941-0190-459D-9E38-236D011F43B6}" uniqueName="1" name="_id" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{06192C03-64EA-4881-8EA4-C8DB620A6372}" uniqueName="2" name="_idFile" queryTableFieldId="2" dataDxfId="6"/>
@@ -1468,27 +1468,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BA1846-D39B-4DAE-AE85-3ADC3BC3BB2E}">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1539,9 +1539,6 @@
       <c r="D2" s="2">
         <v>42277.875</v>
       </c>
-      <c r="E2">
-        <v>291305148</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>220</v>
       </c>
@@ -1564,9 +1561,9 @@
         <v>3892.76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -1575,13 +1572,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>42460.875</v>
-      </c>
-      <c r="E3">
-        <v>291441203</v>
+        <v>42277.875</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1590,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -1599,12 +1593,12 @@
         <v>16</v>
       </c>
       <c r="L3">
-        <v>2834.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3892.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -1613,13 +1607,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>42490.875</v>
-      </c>
-      <c r="E4">
-        <v>291469272</v>
+        <v>42277.875</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1628,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -1637,25 +1628,22 @@
         <v>16</v>
       </c>
       <c r="L4">
-        <v>8525.43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3892.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>42277.875</v>
       </c>
-      <c r="E5">
-        <v>291305148</v>
-      </c>
       <c r="F5" s="1" t="s">
         <v>220</v>
       </c>
@@ -1678,275 +1666,272 @@
         <v>3892.76</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42277.875</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <v>3892.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>42277.875</v>
+      </c>
+      <c r="E7">
+        <v>291305148</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>3892.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42460.875</v>
+      </c>
+      <c r="E8">
+        <v>291441203</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>2834.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42490.875</v>
+      </c>
+      <c r="E9">
+        <v>291469272</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <v>8525.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>42277.875</v>
+      </c>
+      <c r="E10">
+        <v>291305148</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>3892.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D11" s="2">
         <v>42460.875</v>
       </c>
-      <c r="E6">
+      <c r="E11">
         <v>291441203</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6">
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
         <v>2834.42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D12" s="2">
         <v>42490.875</v>
       </c>
-      <c r="E7">
+      <c r="E12">
         <v>291469272</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7">
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12">
         <v>8525.43</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2">
-        <v>39498.875</v>
-      </c>
-      <c r="E8">
-        <v>131160354</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2">
-        <v>39435.916666666664</v>
-      </c>
-      <c r="E9">
-        <v>131064185</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9">
-        <v>1738.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2">
-        <v>39435.916666666664</v>
-      </c>
-      <c r="E10">
-        <v>131064185</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2">
-        <v>39435.916666666664</v>
-      </c>
-      <c r="E11">
-        <v>131064525</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>1838.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2">
-        <v>41582.916666666664</v>
-      </c>
-      <c r="E12">
-        <v>131064614</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12">
-        <v>-1009.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
@@ -1955,13 +1940,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>39435.916666666664</v>
+        <v>39498.875</v>
       </c>
       <c r="E13">
-        <v>131065017</v>
+        <v>131160354</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1970,21 +1955,21 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L13">
-        <v>1975.32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
@@ -1996,10 +1981,10 @@
         <v>39435.916666666664</v>
       </c>
       <c r="E14">
-        <v>131065050</v>
+        <v>131064185</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2008,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L14">
-        <v>-442.19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1738.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
@@ -2031,13 +2016,13 @@
         <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>39531.875</v>
+        <v>39435.916666666664</v>
       </c>
       <c r="E15">
-        <v>131172476</v>
+        <v>131064185</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2046,21 +2031,21 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L15">
-        <v>-442.19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
@@ -2072,10 +2057,10 @@
         <v>39435.916666666664</v>
       </c>
       <c r="E16">
-        <v>131065181</v>
+        <v>131064525</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2093,12 +2078,12 @@
         <v>16</v>
       </c>
       <c r="L16">
-        <v>2567.79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1838.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>26</v>
@@ -2107,13 +2092,13 @@
         <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>39435.916666666664</v>
+        <v>41582.916666666664</v>
       </c>
       <c r="E17">
-        <v>131065190</v>
+        <v>131064614</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2122,21 +2107,21 @@
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L17">
-        <v>2567.79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1009.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -2148,10 +2133,10 @@
         <v>39435.916666666664</v>
       </c>
       <c r="E18">
-        <v>131065840</v>
+        <v>131065017</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2169,12 +2154,12 @@
         <v>16</v>
       </c>
       <c r="L18">
-        <v>3122.81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1975.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
@@ -2186,10 +2171,10 @@
         <v>39435.916666666664</v>
       </c>
       <c r="E19">
-        <v>131065858</v>
+        <v>131065050</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2204,15 +2189,15 @@
         <v>36</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L19">
-        <v>-1784.16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-442.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
@@ -2221,13 +2206,13 @@
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <v>39435.916666666664</v>
+        <v>39531.875</v>
       </c>
       <c r="E20">
-        <v>131065947</v>
+        <v>131172476</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2239,18 +2224,18 @@
         <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L20">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-442.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>26</v>
@@ -2262,10 +2247,10 @@
         <v>39435.916666666664</v>
       </c>
       <c r="E21">
-        <v>131066081</v>
+        <v>131065181</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2283,12 +2268,12 @@
         <v>16</v>
       </c>
       <c r="L21">
-        <v>1975.32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2567.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
@@ -2297,13 +2282,13 @@
         <v>27</v>
       </c>
       <c r="D22" s="2">
-        <v>42185.875</v>
+        <v>39435.916666666664</v>
       </c>
       <c r="E22">
-        <v>131066633</v>
+        <v>131065190</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2315,18 +2300,18 @@
         <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L22">
-        <v>2567.9499999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2567.79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -2335,13 +2320,13 @@
         <v>27</v>
       </c>
       <c r="D23" s="2">
-        <v>42185.875</v>
+        <v>39435.916666666664</v>
       </c>
       <c r="E23">
-        <v>131066641</v>
+        <v>131065840</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2353,18 +2338,18 @@
         <v>34</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L23">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3122.81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
@@ -2376,10 +2361,10 @@
         <v>39435.916666666664</v>
       </c>
       <c r="E24">
-        <v>131066650</v>
+        <v>131065858</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2391,18 +2376,18 @@
         <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L24">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1784.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
@@ -2414,10 +2399,10 @@
         <v>39435.916666666664</v>
       </c>
       <c r="E25">
-        <v>131066749</v>
+        <v>131065947</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2435,12 +2420,12 @@
         <v>16</v>
       </c>
       <c r="L25">
-        <v>2515.2399999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
@@ -2449,13 +2434,13 @@
         <v>27</v>
       </c>
       <c r="D26" s="2">
-        <v>39498.875</v>
+        <v>39435.916666666664</v>
       </c>
       <c r="E26">
-        <v>131160346</v>
+        <v>131066081</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2464,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1975.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
@@ -2487,13 +2472,13 @@
         <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>39469.916666666664</v>
+        <v>42185.875</v>
       </c>
       <c r="E27">
-        <v>131160249</v>
+        <v>131066633</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2511,12 +2496,12 @@
         <v>16</v>
       </c>
       <c r="L27">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2567.9499999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
@@ -2525,13 +2510,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>39469.916666666664</v>
+        <v>42185.875</v>
       </c>
       <c r="E28">
-        <v>131160371</v>
+        <v>131066641</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2543,18 +2528,18 @@
         <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L28">
-        <v>1279.73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
@@ -2563,13 +2548,13 @@
         <v>27</v>
       </c>
       <c r="D29" s="2">
-        <v>39498.875</v>
+        <v>39435.916666666664</v>
       </c>
       <c r="E29">
-        <v>131160401</v>
+        <v>131066650</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2587,12 +2572,12 @@
         <v>16</v>
       </c>
       <c r="L29">
-        <v>1975.32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
@@ -2601,13 +2586,13 @@
         <v>27</v>
       </c>
       <c r="D30" s="2">
-        <v>39498.875</v>
+        <v>39435.916666666664</v>
       </c>
       <c r="E30">
-        <v>131160427</v>
+        <v>131066749</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2619,18 +2604,18 @@
         <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L30">
-        <v>1975.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2515.2399999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>26</v>
@@ -2642,10 +2627,10 @@
         <v>39498.875</v>
       </c>
       <c r="E31">
-        <v>131160435</v>
+        <v>131160346</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2654,21 +2639,21 @@
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L31">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>26</v>
@@ -2677,13 +2662,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="2">
-        <v>39498.875</v>
+        <v>39469.916666666664</v>
       </c>
       <c r="E32">
-        <v>131160451</v>
+        <v>131160249</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2695,18 +2680,18 @@
         <v>34</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L32">
         <v>806.35</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
@@ -2715,13 +2700,13 @@
         <v>27</v>
       </c>
       <c r="D33" s="2">
-        <v>39588.875</v>
+        <v>39469.916666666664</v>
       </c>
       <c r="E33">
-        <v>131226649</v>
+        <v>131160371</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2739,12 +2724,12 @@
         <v>16</v>
       </c>
       <c r="L33">
-        <v>1975.32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1279.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>26</v>
@@ -2753,13 +2738,13 @@
         <v>27</v>
       </c>
       <c r="D34" s="2">
-        <v>39588.875</v>
+        <v>39498.875</v>
       </c>
       <c r="E34">
-        <v>131226746</v>
+        <v>131160401</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2771,18 +2756,18 @@
         <v>34</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L34">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1975.32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>26</v>
@@ -2791,13 +2776,13 @@
         <v>27</v>
       </c>
       <c r="D35" s="2">
-        <v>39588.875</v>
+        <v>39498.875</v>
       </c>
       <c r="E35">
-        <v>131419021</v>
+        <v>131160427</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2815,12 +2800,12 @@
         <v>30</v>
       </c>
       <c r="L35">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1975.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>26</v>
@@ -2829,13 +2814,13 @@
         <v>27</v>
       </c>
       <c r="D36" s="2">
-        <v>39588.875</v>
+        <v>39498.875</v>
       </c>
       <c r="E36">
-        <v>131227360</v>
+        <v>131160435</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2847,18 +2832,18 @@
         <v>34</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L36">
-        <v>4837.34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>26</v>
@@ -2867,13 +2852,13 @@
         <v>27</v>
       </c>
       <c r="D37" s="2">
-        <v>41280.916666666664</v>
+        <v>39498.875</v>
       </c>
       <c r="E37">
-        <v>133301630</v>
+        <v>131160451</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2894,9 +2879,9 @@
         <v>806.35</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>26</v>
@@ -2905,13 +2890,13 @@
         <v>27</v>
       </c>
       <c r="D38" s="2">
-        <v>39566.875</v>
+        <v>39588.875</v>
       </c>
       <c r="E38">
-        <v>131236822</v>
+        <v>131226649</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2932,9 +2917,9 @@
         <v>1975.32</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>26</v>
@@ -2943,13 +2928,13 @@
         <v>27</v>
       </c>
       <c r="D39" s="2">
-        <v>39651.875</v>
+        <v>39588.875</v>
       </c>
       <c r="E39">
-        <v>131285637</v>
+        <v>131226746</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2961,18 +2946,18 @@
         <v>34</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L39">
         <v>806.35</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>26</v>
@@ -2981,13 +2966,13 @@
         <v>27</v>
       </c>
       <c r="D40" s="2">
-        <v>43083.916666666664</v>
+        <v>39588.875</v>
       </c>
       <c r="E40">
-        <v>131311786</v>
+        <v>131419021</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2996,21 +2981,21 @@
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L40">
-        <v>733.99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>26</v>
@@ -3019,13 +3004,13 @@
         <v>27</v>
       </c>
       <c r="D41" s="2">
-        <v>43083.916666666664</v>
+        <v>39588.875</v>
       </c>
       <c r="E41">
-        <v>131311786</v>
+        <v>131227360</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3034,21 +3019,21 @@
         <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4837.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>26</v>
@@ -3057,13 +3042,13 @@
         <v>27</v>
       </c>
       <c r="D42" s="2">
-        <v>42807.875</v>
+        <v>41280.916666666664</v>
       </c>
       <c r="E42">
-        <v>131341294</v>
+        <v>133301630</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3075,18 +3060,18 @@
         <v>34</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L42">
-        <v>4837.34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>26</v>
@@ -3095,13 +3080,13 @@
         <v>27</v>
       </c>
       <c r="D43" s="2">
-        <v>39712.875</v>
+        <v>39566.875</v>
       </c>
       <c r="E43">
-        <v>131341341</v>
+        <v>131236822</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3119,12 +3104,12 @@
         <v>16</v>
       </c>
       <c r="L43">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1975.32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>26</v>
@@ -3133,13 +3118,13 @@
         <v>27</v>
       </c>
       <c r="D44" s="2">
-        <v>39810.916666666664</v>
+        <v>39651.875</v>
       </c>
       <c r="E44">
-        <v>131427024</v>
+        <v>131285637</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3148,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>15</v>
@@ -3157,12 +3142,12 @@
         <v>16</v>
       </c>
       <c r="L44">
-        <v>709.48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>26</v>
@@ -3171,13 +3156,13 @@
         <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>39810.916666666664</v>
+        <v>43083.916666666664</v>
       </c>
       <c r="E45">
-        <v>131427024</v>
+        <v>131311786</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3189,18 +3174,18 @@
         <v>28</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>733.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>26</v>
@@ -3209,13 +3194,13 @@
         <v>27</v>
       </c>
       <c r="D46" s="2">
-        <v>39832.916666666664</v>
+        <v>43083.916666666664</v>
       </c>
       <c r="E46">
-        <v>131444255</v>
+        <v>131311786</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3224,21 +3209,21 @@
         <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L46">
-        <v>1975.32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>26</v>
@@ -3247,13 +3232,13 @@
         <v>27</v>
       </c>
       <c r="D47" s="2">
-        <v>39832.916666666664</v>
+        <v>42807.875</v>
       </c>
       <c r="E47">
-        <v>131444298</v>
+        <v>131341294</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3271,12 +3256,12 @@
         <v>16</v>
       </c>
       <c r="L47">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4837.34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>26</v>
@@ -3285,13 +3270,13 @@
         <v>27</v>
       </c>
       <c r="D48" s="2">
-        <v>39945.875</v>
+        <v>39712.875</v>
       </c>
       <c r="E48">
-        <v>131563190</v>
+        <v>131341341</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3300,21 +3285,21 @@
         <v>0</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L48">
-        <v>-366.18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>26</v>
@@ -3323,13 +3308,13 @@
         <v>27</v>
       </c>
       <c r="D49" s="2">
-        <v>39954.875</v>
+        <v>39810.916666666664</v>
       </c>
       <c r="E49">
-        <v>131570927</v>
+        <v>131427024</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3350,9 +3335,9 @@
         <v>709.48</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>26</v>
@@ -3361,13 +3346,13 @@
         <v>27</v>
       </c>
       <c r="D50" s="2">
-        <v>39954.875</v>
+        <v>39810.916666666664</v>
       </c>
       <c r="E50">
-        <v>131570927</v>
+        <v>131427024</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3388,9 +3373,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>26</v>
@@ -3399,13 +3384,13 @@
         <v>27</v>
       </c>
       <c r="D51" s="2">
-        <v>39954.875</v>
+        <v>39832.916666666664</v>
       </c>
       <c r="E51">
-        <v>131572598</v>
+        <v>131444255</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3423,12 +3408,12 @@
         <v>16</v>
       </c>
       <c r="L51">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1975.32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>26</v>
@@ -3437,13 +3422,13 @@
         <v>27</v>
       </c>
       <c r="D52" s="2">
-        <v>39981.875</v>
+        <v>39832.916666666664</v>
       </c>
       <c r="E52">
-        <v>131607031</v>
+        <v>131444298</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3461,12 +3446,12 @@
         <v>16</v>
       </c>
       <c r="L52">
-        <v>1975.32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>26</v>
@@ -3475,13 +3460,13 @@
         <v>27</v>
       </c>
       <c r="D53" s="2">
-        <v>39992.875</v>
+        <v>39945.875</v>
       </c>
       <c r="E53">
-        <v>131616978</v>
+        <v>131563190</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3490,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>36</v>
@@ -3499,12 +3484,12 @@
         <v>16</v>
       </c>
       <c r="L53">
-        <v>-1146.96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-366.18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>26</v>
@@ -3513,13 +3498,13 @@
         <v>27</v>
       </c>
       <c r="D54" s="2">
-        <v>40010.875</v>
+        <v>39954.875</v>
       </c>
       <c r="E54">
-        <v>131648594</v>
+        <v>131570927</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3528,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>15</v>
@@ -3537,12 +3522,12 @@
         <v>16</v>
       </c>
       <c r="L54">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>709.48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>26</v>
@@ -3551,13 +3536,13 @@
         <v>27</v>
       </c>
       <c r="D55" s="2">
-        <v>41570.916666666664</v>
+        <v>39954.875</v>
       </c>
       <c r="E55">
-        <v>131695436</v>
+        <v>131570927</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3566,21 +3551,21 @@
         <v>0</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L55">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>26</v>
@@ -3589,13 +3574,13 @@
         <v>27</v>
       </c>
       <c r="D56" s="2">
-        <v>41570.916666666664</v>
+        <v>39954.875</v>
       </c>
       <c r="E56">
-        <v>131695479</v>
+        <v>131572598</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3607,18 +3592,18 @@
         <v>34</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L56">
-        <v>1975.32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>26</v>
@@ -3627,13 +3612,13 @@
         <v>27</v>
       </c>
       <c r="D57" s="2">
-        <v>40043.875</v>
+        <v>39981.875</v>
       </c>
       <c r="E57">
-        <v>131702114</v>
+        <v>131607031</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3645,18 +3630,18 @@
         <v>34</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L57">
-        <v>-1146.96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1975.32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>26</v>
@@ -3665,13 +3650,13 @@
         <v>27</v>
       </c>
       <c r="D58" s="2">
-        <v>40043.875</v>
+        <v>39992.875</v>
       </c>
       <c r="E58">
-        <v>131702254</v>
+        <v>131616978</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3689,12 +3674,12 @@
         <v>16</v>
       </c>
       <c r="L58">
-        <v>-754.33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1146.96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>26</v>
@@ -3703,13 +3688,13 @@
         <v>27</v>
       </c>
       <c r="D59" s="2">
-        <v>40071.875</v>
+        <v>40010.875</v>
       </c>
       <c r="E59">
-        <v>131738020</v>
+        <v>131648594</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3721,18 +3706,18 @@
         <v>34</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L59">
-        <v>-416.18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>26</v>
@@ -3741,13 +3726,13 @@
         <v>27</v>
       </c>
       <c r="D60" s="2">
-        <v>40076.875</v>
+        <v>41570.916666666664</v>
       </c>
       <c r="E60">
-        <v>131743767</v>
+        <v>131695436</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3765,12 +3750,12 @@
         <v>16</v>
       </c>
       <c r="L60">
-        <v>1975.32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>26</v>
@@ -3779,13 +3764,13 @@
         <v>27</v>
       </c>
       <c r="D61" s="2">
-        <v>40076.875</v>
+        <v>41570.916666666664</v>
       </c>
       <c r="E61">
-        <v>131744241</v>
+        <v>131695479</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3797,18 +3782,18 @@
         <v>34</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L61">
-        <v>806.35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1975.32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>26</v>
@@ -3817,226 +3802,226 @@
         <v>27</v>
       </c>
       <c r="D62" s="2">
+        <v>40043.875</v>
+      </c>
+      <c r="E62">
+        <v>131702114</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62">
+        <v>-1146.96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="2">
+        <v>40043.875</v>
+      </c>
+      <c r="E63">
+        <v>131702254</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63">
+        <v>-754.33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="2">
+        <v>40071.875</v>
+      </c>
+      <c r="E64">
+        <v>131738020</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64">
+        <v>-416.18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="2">
+        <v>40076.875</v>
+      </c>
+      <c r="E65">
+        <v>131743767</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65">
+        <v>1975.32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="2">
+        <v>40076.875</v>
+      </c>
+      <c r="E66">
+        <v>131744241</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66">
+        <v>806.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="2">
         <v>40085.875</v>
       </c>
-      <c r="E62">
+      <c r="E67">
         <v>131756117</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62">
+      <c r="J67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67">
         <v>1738.03</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="2">
-        <v>43357.875</v>
-      </c>
-      <c r="E63">
-        <v>73611877</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63">
-        <v>416.82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="2">
-        <v>43357.875</v>
-      </c>
-      <c r="E64">
-        <v>73611883</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64">
-        <v>664.46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="2">
-        <v>43545.875</v>
-      </c>
-      <c r="E65">
-        <v>75018205</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L65">
-        <v>416.82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="2">
-        <v>43387.875</v>
-      </c>
-      <c r="E66">
-        <v>73799319</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66">
-        <v>416.82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="2">
-        <v>43418.916666666664</v>
-      </c>
-      <c r="E67">
-        <v>74081768</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L67">
-        <v>416.82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>90</v>
@@ -4045,13 +4030,13 @@
         <v>91</v>
       </c>
       <c r="D68" s="2">
-        <v>43418.916666666664</v>
+        <v>43357.875</v>
       </c>
       <c r="E68">
-        <v>74090462</v>
+        <v>73611877</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -4069,12 +4054,12 @@
         <v>16</v>
       </c>
       <c r="L68">
-        <v>664.46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>416.82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>90</v>
@@ -4083,13 +4068,13 @@
         <v>91</v>
       </c>
       <c r="D69" s="2">
-        <v>43418.916666666664</v>
+        <v>43357.875</v>
       </c>
       <c r="E69">
-        <v>74090463</v>
+        <v>73611883</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4101,18 +4086,18 @@
         <v>92</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L69">
-        <v>416.82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>664.46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>90</v>
@@ -4121,13 +4106,13 @@
         <v>91</v>
       </c>
       <c r="D70" s="2">
-        <v>43418.916666666664</v>
+        <v>43545.875</v>
       </c>
       <c r="E70">
-        <v>74090737</v>
+        <v>75018205</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4136,21 +4121,21 @@
         <v>0</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L70">
         <v>416.82</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>90</v>
@@ -4159,13 +4144,13 @@
         <v>91</v>
       </c>
       <c r="D71" s="2">
-        <v>43510.916666666664</v>
+        <v>43387.875</v>
       </c>
       <c r="E71">
-        <v>74766979</v>
+        <v>73799319</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4186,9 +4171,9 @@
         <v>416.82</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>90</v>
@@ -4197,13 +4182,13 @@
         <v>91</v>
       </c>
       <c r="D72" s="2">
-        <v>43510.916666666664</v>
+        <v>43418.916666666664</v>
       </c>
       <c r="E72">
-        <v>74766980</v>
+        <v>74081768</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -4215,18 +4200,18 @@
         <v>92</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L72">
         <v>416.82</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>90</v>
@@ -4235,13 +4220,13 @@
         <v>91</v>
       </c>
       <c r="D73" s="2">
-        <v>43510.916666666664</v>
+        <v>43418.916666666664</v>
       </c>
       <c r="E73">
-        <v>74766989</v>
+        <v>74090462</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4250,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>15</v>
@@ -4259,12 +4244,12 @@
         <v>16</v>
       </c>
       <c r="L73">
-        <v>742.22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>664.46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>90</v>
@@ -4273,13 +4258,13 @@
         <v>91</v>
       </c>
       <c r="D74" s="2">
-        <v>43510.916666666664</v>
+        <v>43418.916666666664</v>
       </c>
       <c r="E74">
-        <v>74773677</v>
+        <v>74090463</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4288,21 +4273,21 @@
         <v>0</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L74">
-        <v>1759.99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>416.82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>90</v>
@@ -4311,13 +4296,13 @@
         <v>91</v>
       </c>
       <c r="D75" s="2">
-        <v>43538.875</v>
+        <v>43418.916666666664</v>
       </c>
       <c r="E75">
-        <v>74958124</v>
+        <v>74090737</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -4326,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>15</v>
@@ -4338,9 +4323,9 @@
         <v>416.82</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>90</v>
@@ -4349,13 +4334,13 @@
         <v>91</v>
       </c>
       <c r="D76" s="2">
-        <v>43569.875</v>
+        <v>43510.916666666664</v>
       </c>
       <c r="E76">
-        <v>75188813</v>
+        <v>74766979</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4373,12 +4358,12 @@
         <v>16</v>
       </c>
       <c r="L76">
-        <v>13.45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>416.82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>90</v>
@@ -4387,13 +4372,13 @@
         <v>91</v>
       </c>
       <c r="D77" s="2">
-        <v>43599.875</v>
+        <v>43510.916666666664</v>
       </c>
       <c r="E77">
-        <v>76090758</v>
+        <v>74766980</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4405,18 +4390,18 @@
         <v>92</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L77">
         <v>416.82</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>90</v>
@@ -4425,13 +4410,13 @@
         <v>91</v>
       </c>
       <c r="D78" s="2">
-        <v>43599.875</v>
+        <v>43510.916666666664</v>
       </c>
       <c r="E78">
-        <v>76090759</v>
+        <v>74766989</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4440,21 +4425,21 @@
         <v>0</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L78">
-        <v>416.82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>742.22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>90</v>
@@ -4463,13 +4448,13 @@
         <v>91</v>
       </c>
       <c r="D79" s="2">
-        <v>43599.875</v>
+        <v>43510.916666666664</v>
       </c>
       <c r="E79">
-        <v>76100313</v>
+        <v>74773677</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4478,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>15</v>
@@ -4487,12 +4472,12 @@
         <v>16</v>
       </c>
       <c r="L79">
-        <v>416.82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1759.99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>90</v>
@@ -4501,13 +4486,13 @@
         <v>91</v>
       </c>
       <c r="D80" s="2">
-        <v>43599.875</v>
+        <v>43538.875</v>
       </c>
       <c r="E80">
-        <v>76100317</v>
+        <v>74958124</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -4519,18 +4504,18 @@
         <v>92</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L80">
-        <v>-62.2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>416.82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>90</v>
@@ -4539,13 +4524,13 @@
         <v>91</v>
       </c>
       <c r="D81" s="2">
-        <v>43599.875</v>
+        <v>43569.875</v>
       </c>
       <c r="E81">
-        <v>76100372</v>
+        <v>75188813</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -4563,12 +4548,12 @@
         <v>16</v>
       </c>
       <c r="L81">
-        <v>416.82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>90</v>
@@ -4580,33 +4565,33 @@
         <v>43599.875</v>
       </c>
       <c r="E82">
-        <v>76100372</v>
+        <v>76090758</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G82">
-        <v>26084</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>260.83999999999997</v>
+        <v>0</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>416.82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>90</v>
@@ -4618,10 +4603,10 @@
         <v>43599.875</v>
       </c>
       <c r="E83">
-        <v>76100373</v>
+        <v>76090759</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -4639,12 +4624,12 @@
         <v>30</v>
       </c>
       <c r="L83">
-        <v>1223.8900000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>416.82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>90</v>
@@ -4656,33 +4641,33 @@
         <v>43599.875</v>
       </c>
       <c r="E84">
-        <v>76100373</v>
+        <v>76100313</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="G84">
-        <v>64145</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>641.45000000000005</v>
+        <v>0</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>416.82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>90</v>
@@ -4691,13 +4676,13 @@
         <v>91</v>
       </c>
       <c r="D85" s="2">
-        <v>43691.875</v>
+        <v>43599.875</v>
       </c>
       <c r="E85">
-        <v>76663439</v>
+        <v>76100317</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4709,18 +4694,18 @@
         <v>92</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L85">
-        <v>416.82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-62.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>90</v>
@@ -4729,13 +4714,13 @@
         <v>91</v>
       </c>
       <c r="D86" s="2">
-        <v>43691.875</v>
+        <v>43599.875</v>
       </c>
       <c r="E86">
-        <v>76663612</v>
+        <v>76100372</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -4756,9 +4741,9 @@
         <v>416.82</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>90</v>
@@ -4767,51 +4752,51 @@
         <v>91</v>
       </c>
       <c r="D87" s="2">
-        <v>43691.875</v>
+        <v>43599.875</v>
       </c>
       <c r="E87">
-        <v>76663637</v>
+        <v>76100372</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>26084</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>260.83999999999997</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L87">
-        <v>416.82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D88" s="2">
-        <v>43326.875</v>
+        <v>43599.875</v>
       </c>
       <c r="E88">
-        <v>73394844</v>
+        <v>76100373</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -4820,188 +4805,188 @@
         <v>0</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L88">
-        <v>2323.64</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1223.8900000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D89" s="2">
-        <v>44740.875</v>
+        <v>43599.875</v>
       </c>
       <c r="E89">
-        <v>84162731</v>
+        <v>76100373</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>297</v>
+        <v>214</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>64145</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>641.45000000000005</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L89">
-        <v>1287.56</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" s="2">
+        <v>43691.875</v>
+      </c>
+      <c r="E90">
+        <v>76663439</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90">
+        <v>416.82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" s="2">
+        <v>43691.875</v>
+      </c>
+      <c r="E91">
+        <v>76663612</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91">
+        <v>416.82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="2">
+        <v>43691.875</v>
+      </c>
+      <c r="E92">
+        <v>76663637</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92">
+        <v>416.82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D90" s="2">
-        <v>44740.875</v>
-      </c>
-      <c r="E90">
-        <v>84162731</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G90">
-        <v>42972</v>
-      </c>
-      <c r="H90">
-        <v>429.72</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" s="2">
-        <v>43538.875</v>
-      </c>
-      <c r="E91">
-        <v>74953220</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91">
-        <v>103.93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" s="2">
+      <c r="D93" s="2">
         <v>43326.875</v>
       </c>
-      <c r="E92">
-        <v>73391747</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L92">
-        <v>2060.81</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D93" s="2">
-        <v>43357.875</v>
-      </c>
       <c r="E93">
-        <v>73599828</v>
+        <v>73394844</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -5022,24 +5007,24 @@
         <v>2323.64</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D94" s="2">
-        <v>43418.916666666664</v>
+        <v>44740.875</v>
       </c>
       <c r="E94">
-        <v>74065782</v>
+        <v>84162731</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -5048,74 +5033,74 @@
         <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L94">
-        <v>2244.1999999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1287.56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D95" s="2">
-        <v>43418.916666666664</v>
+        <v>44740.875</v>
       </c>
       <c r="E95">
-        <v>74065788</v>
+        <v>84162731</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>42972</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>429.72</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L95">
-        <v>1680.33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D96" s="2">
-        <v>43418.916666666664</v>
+        <v>43538.875</v>
       </c>
       <c r="E96">
-        <v>74075133</v>
+        <v>74953220</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -5124,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>15</v>
@@ -5133,12 +5118,12 @@
         <v>16</v>
       </c>
       <c r="L96">
-        <v>5268.93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103.93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>127</v>
@@ -5147,13 +5132,13 @@
         <v>128</v>
       </c>
       <c r="D97" s="2">
-        <v>43479.916666666664</v>
+        <v>43326.875</v>
       </c>
       <c r="E97">
-        <v>74543416</v>
+        <v>73391747</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -5171,12 +5156,12 @@
         <v>16</v>
       </c>
       <c r="L97">
-        <v>2575.98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2060.81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>127</v>
@@ -5185,13 +5170,13 @@
         <v>128</v>
       </c>
       <c r="D98" s="2">
-        <v>43538.875</v>
+        <v>43357.875</v>
       </c>
       <c r="E98">
-        <v>74953325</v>
+        <v>73599828</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -5209,12 +5194,12 @@
         <v>16</v>
       </c>
       <c r="L98">
-        <v>2555.9499999999998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2323.64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>127</v>
@@ -5223,13 +5208,13 @@
         <v>128</v>
       </c>
       <c r="D99" s="2">
-        <v>43630.875</v>
+        <v>43418.916666666664</v>
       </c>
       <c r="E99">
-        <v>76290913</v>
+        <v>74065782</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -5247,12 +5232,12 @@
         <v>16</v>
       </c>
       <c r="L99">
-        <v>1297.6600000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2244.1999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>127</v>
@@ -5261,13 +5246,13 @@
         <v>128</v>
       </c>
       <c r="D100" s="2">
-        <v>43691.875</v>
+        <v>43418.916666666664</v>
       </c>
       <c r="E100">
-        <v>76662253</v>
+        <v>74065788</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -5285,217 +5270,217 @@
         <v>16</v>
       </c>
       <c r="L100">
+        <v>1680.33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101" s="2">
+        <v>43418.916666666664</v>
+      </c>
+      <c r="E101">
+        <v>74075133</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101">
+        <v>5268.93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102" s="2">
+        <v>43479.916666666664</v>
+      </c>
+      <c r="E102">
+        <v>74543416</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102">
+        <v>2575.98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="2">
+        <v>43538.875</v>
+      </c>
+      <c r="E103">
+        <v>74953325</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L103">
+        <v>2555.9499999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D104" s="2">
+        <v>43630.875</v>
+      </c>
+      <c r="E104">
+        <v>76290913</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104">
+        <v>1297.6600000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" s="2">
+        <v>43691.875</v>
+      </c>
+      <c r="E105">
+        <v>76662253</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105">
         <v>2060.81</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D106" s="2">
         <v>43538.875</v>
       </c>
-      <c r="E101">
+      <c r="E106">
         <v>74956673</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L101">
-        <v>1038.0899999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D102" s="2">
-        <v>43599.875</v>
-      </c>
-      <c r="E102">
-        <v>76100983</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102">
-        <v>481.83</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D103" s="2">
-        <v>43418.916666666664</v>
-      </c>
-      <c r="E103">
-        <v>74081697</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L103">
-        <v>699.32</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D104" s="2">
-        <v>43448.916666666664</v>
-      </c>
-      <c r="E104">
-        <v>74325051</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L104">
-        <v>635.76</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D105" s="2">
-        <v>43479.916666666664</v>
-      </c>
-      <c r="E105">
-        <v>74543375</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L105">
-        <v>734.27</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D106" s="2">
-        <v>43387.875</v>
-      </c>
-      <c r="E106">
-        <v>73811692</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5513,316 +5498,316 @@
         <v>16</v>
       </c>
       <c r="L106">
+        <v>1038.0899999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D107" s="2">
+        <v>43599.875</v>
+      </c>
+      <c r="E107">
+        <v>76100983</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L107">
+        <v>481.83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D108" s="2">
+        <v>43418.916666666664</v>
+      </c>
+      <c r="E108">
+        <v>74081697</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L108">
+        <v>699.32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" s="2">
+        <v>43448.916666666664</v>
+      </c>
+      <c r="E109">
+        <v>74325051</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L109">
+        <v>635.76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="2">
+        <v>43479.916666666664</v>
+      </c>
+      <c r="E110">
+        <v>74543375</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L110">
+        <v>734.27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D111" s="2">
+        <v>43387.875</v>
+      </c>
+      <c r="E111">
+        <v>73811692</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L111">
         <v>2575.98</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D112" s="2">
         <v>43569.875</v>
       </c>
-      <c r="E107">
+      <c r="E112">
         <v>75187990</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107" s="1" t="s">
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J107" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L107">
+      <c r="J112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L112">
         <v>1180.27</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D113" s="2">
         <v>43357.875</v>
       </c>
-      <c r="E108">
+      <c r="E113">
         <v>73611845</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108" s="1" t="s">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L108">
+      <c r="J113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L113">
         <v>1103.04</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D114" s="2">
         <v>43510.916666666664</v>
       </c>
-      <c r="E109">
+      <c r="E114">
         <v>74770467</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109" s="1" t="s">
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L109">
+      <c r="J114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L114">
         <v>1038.0899999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D110" s="2">
-        <v>42004.916666666664</v>
-      </c>
-      <c r="E110">
-        <v>291093370</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L110">
-        <v>192.01</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D111" s="2">
-        <v>42063.875</v>
-      </c>
-      <c r="E111">
-        <v>291139507</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L111">
-        <v>2910.02</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D112" s="2">
-        <v>43993.875</v>
-      </c>
-      <c r="E112">
-        <v>78372767</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L112">
-        <v>1697.25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D113" s="2">
-        <v>42155.875</v>
-      </c>
-      <c r="E113">
-        <v>291214061</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L113">
-        <v>-1388.26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D114" s="2">
-        <v>42185.875</v>
-      </c>
-      <c r="E114">
-        <v>291238688</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L114">
-        <v>2182.44</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>159</v>
@@ -5831,13 +5816,13 @@
         <v>160</v>
       </c>
       <c r="D115" s="2">
-        <v>42216.875</v>
+        <v>42004.916666666664</v>
       </c>
       <c r="E115">
-        <v>291263194</v>
+        <v>291093370</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5846,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>15</v>
@@ -5855,12 +5840,12 @@
         <v>16</v>
       </c>
       <c r="L115">
-        <v>4158.12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>192.01</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>159</v>
@@ -5869,13 +5854,13 @@
         <v>160</v>
       </c>
       <c r="D116" s="2">
-        <v>42247.875</v>
+        <v>42063.875</v>
       </c>
       <c r="E116">
-        <v>291285783</v>
+        <v>291139507</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5884,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>15</v>
@@ -5893,12 +5878,12 @@
         <v>16</v>
       </c>
       <c r="L116">
-        <v>5198.55</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2910.02</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>159</v>
@@ -5907,355 +5892,355 @@
         <v>160</v>
       </c>
       <c r="D117" s="2">
+        <v>43993.875</v>
+      </c>
+      <c r="E117">
+        <v>78372767</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L117">
+        <v>1697.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" s="2">
+        <v>42155.875</v>
+      </c>
+      <c r="E118">
+        <v>291214061</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L118">
+        <v>-1388.26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D119" s="2">
+        <v>42185.875</v>
+      </c>
+      <c r="E119">
+        <v>291238688</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L119">
+        <v>2182.44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D120" s="2">
+        <v>42216.875</v>
+      </c>
+      <c r="E120">
+        <v>291263194</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L120">
+        <v>4158.12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D121" s="2">
+        <v>42247.875</v>
+      </c>
+      <c r="E121">
+        <v>291285783</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L121">
+        <v>5198.55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" s="2">
         <v>42243.875</v>
       </c>
-      <c r="E117">
+      <c r="E122">
         <v>291503802</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117" s="1" t="s">
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="J122" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L117">
+      <c r="K122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L122">
         <v>8284.0300000000007</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D123" s="2">
         <v>42277.875</v>
       </c>
-      <c r="E118">
+      <c r="E123">
         <v>291305555</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118" s="1" t="s">
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L118">
+      <c r="J123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L123">
         <v>1822.44</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D124" s="2">
         <v>42400.916666666664</v>
       </c>
-      <c r="E119">
+      <c r="E124">
         <v>291396003</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119" s="1" t="s">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J119" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L119">
+      <c r="J124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L124">
         <v>1836.68</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D125" s="2">
         <v>42490.875</v>
       </c>
-      <c r="E120">
+      <c r="E125">
         <v>291469310</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120" s="1" t="s">
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J120" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L120">
+      <c r="J125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L125">
         <v>1822.44</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D126" s="2">
         <v>42521.875</v>
       </c>
-      <c r="E121">
+      <c r="E126">
         <v>291486169</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L121">
-        <v>1670.58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D122" s="2">
-        <v>42551.875</v>
-      </c>
-      <c r="E122">
-        <v>291554270</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L122">
-        <v>1469.36</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D123" s="2">
-        <v>42063.875</v>
-      </c>
-      <c r="E123">
-        <v>291139515</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L123">
-        <v>35.229999999999997</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D124" s="2">
-        <v>42155.875</v>
-      </c>
-      <c r="E124">
-        <v>291214070</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L124">
-        <v>35.229999999999997</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D125" s="2">
-        <v>41820.875</v>
-      </c>
-      <c r="E125">
-        <v>851831940</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L125">
-        <v>5651.65</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D126" s="2">
-        <v>42429.875</v>
-      </c>
-      <c r="E126">
-        <v>291417728</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6273,141 +6258,141 @@
         <v>16</v>
       </c>
       <c r="L126">
-        <v>4871.71</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1670.58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D127" s="2">
+        <v>42551.875</v>
+      </c>
+      <c r="E127">
+        <v>291554270</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L127">
+        <v>1469.36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D128" s="2">
+        <v>42063.875</v>
+      </c>
+      <c r="E128">
+        <v>291139515</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L128">
+        <v>35.229999999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D129" s="2">
+        <v>42155.875</v>
+      </c>
+      <c r="E129">
+        <v>291214070</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L129">
+        <v>35.229999999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130" s="2">
         <v>41820.875</v>
       </c>
-      <c r="E127">
-        <v>290951119</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L127">
-        <v>1775.27</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D128" s="2">
-        <v>41912.875</v>
-      </c>
-      <c r="E128">
-        <v>291026931</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L128">
-        <v>1538.52</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D129" s="2">
-        <v>41943.916666666664</v>
-      </c>
-      <c r="E129">
-        <v>291052304</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L129">
-        <v>1846.2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D130" s="2">
-        <v>42035.916666666664</v>
-      </c>
       <c r="E130">
-        <v>291111408</v>
+        <v>851831940</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -6419,278 +6404,468 @@
         <v>161</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L130">
+        <v>5651.65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D131" s="2">
+        <v>42429.875</v>
+      </c>
+      <c r="E131">
+        <v>291417728</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L131">
+        <v>4871.71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D132" s="2">
+        <v>41820.875</v>
+      </c>
+      <c r="E132">
+        <v>290951119</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L132">
+        <v>1775.27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D133" s="2">
+        <v>41912.875</v>
+      </c>
+      <c r="E133">
+        <v>291026931</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L133">
+        <v>1538.52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D134" s="2">
+        <v>41943.916666666664</v>
+      </c>
+      <c r="E134">
+        <v>291052304</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L134">
+        <v>1846.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D135" s="2">
+        <v>42035.916666666664</v>
+      </c>
+      <c r="E135">
+        <v>291111408</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L135">
         <v>1420.16</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D136" s="2">
         <v>42124.875</v>
       </c>
-      <c r="E131">
+      <c r="E136">
         <v>291191630</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131" s="1" t="s">
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J131" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L131">
+      <c r="J136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L136">
         <v>1893.66</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D137" s="2">
         <v>42277.875</v>
       </c>
-      <c r="E132">
+      <c r="E137">
         <v>291305148</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132" s="1" t="s">
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J132" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L132">
+      <c r="J137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L137">
         <v>3892.76</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D138" s="2">
         <v>42460.875</v>
       </c>
-      <c r="E133">
+      <c r="E138">
         <v>291441203</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133" s="1" t="s">
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J133" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L133">
+      <c r="J138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L138">
         <v>2834.42</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D139" s="2">
         <v>42490.875</v>
       </c>
-      <c r="E134">
+      <c r="E139">
         <v>291469272</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134" s="1" t="s">
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J134" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L134">
+      <c r="J139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L139">
         <v>8525.43</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D140" s="2">
         <v>41973.916666666664</v>
       </c>
-      <c r="E135">
+      <c r="E140">
         <v>852199538</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135" s="1" t="s">
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J135" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L135">
+      <c r="J140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L140">
         <v>1498.64</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D141" s="2">
         <v>41973.916666666664</v>
       </c>
-      <c r="E136">
+      <c r="E141">
         <v>852199546</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F141" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136" s="1" t="s">
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="J141" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K136" s="1" t="s">
+      <c r="K141" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L136">
+      <c r="L141">
         <v>1498.64</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D142" s="2">
         <v>42035.916666666664</v>
       </c>
-      <c r="E137">
+      <c r="E142">
         <v>852308507</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137" s="1" t="s">
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J137" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L137">
+      <c r="J142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L142">
         <v>1498.64</v>
       </c>
     </row>
@@ -6708,7 +6883,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
